--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="H2">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="I2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="J2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="N2">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="O2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="P2">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="Q2">
-        <v>8656.343297936941</v>
+        <v>9087.927046030656</v>
       </c>
       <c r="R2">
-        <v>8656.343297936941</v>
+        <v>81791.34341427591</v>
       </c>
       <c r="S2">
-        <v>0.6697070208863284</v>
+        <v>0.6743608449999309</v>
       </c>
       <c r="T2">
-        <v>0.6697070208863284</v>
+        <v>0.6743608449999309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="H3">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="I3">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="J3">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.6266754621935</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N3">
-        <v>19.6266754621935</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O3">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="P3">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="Q3">
-        <v>1826.055516622398</v>
+        <v>1871.110762139495</v>
       </c>
       <c r="R3">
-        <v>1826.055516622398</v>
+        <v>16839.99685925546</v>
       </c>
       <c r="S3">
-        <v>0.1412746881586465</v>
+        <v>0.1388439660941132</v>
       </c>
       <c r="T3">
-        <v>0.1412746881586465</v>
+        <v>0.1388439660941132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="H4">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="I4">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="J4">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145321763785437</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="N4">
-        <v>0.145321763785437</v>
+        <v>0.439468</v>
       </c>
       <c r="O4">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="P4">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="Q4">
-        <v>13.52066013201589</v>
+        <v>13.96491892122356</v>
       </c>
       <c r="R4">
-        <v>13.52066013201589</v>
+        <v>125.684270291012</v>
       </c>
       <c r="S4">
-        <v>0.001046039962346105</v>
+        <v>0.001036253314575747</v>
       </c>
       <c r="T4">
-        <v>0.001046039962346105</v>
+        <v>0.001036253314575747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.0394717200014</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="H5">
-        <v>93.0394717200014</v>
+        <v>285.991859</v>
       </c>
       <c r="I5">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="J5">
-        <v>0.8183562921407328</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.879196860009934</v>
+        <v>0.06486466666666667</v>
       </c>
       <c r="N5">
-        <v>0.879196860009934</v>
+        <v>0.194594</v>
       </c>
       <c r="O5">
-        <v>0.007733236970484957</v>
+        <v>0.0005587556757982266</v>
       </c>
       <c r="P5">
-        <v>0.007733236970484957</v>
+        <v>0.0005587556757982267</v>
       </c>
       <c r="Q5">
-        <v>81.80001139320829</v>
+        <v>6.183588867805112</v>
       </c>
       <c r="R5">
-        <v>81.80001139320829</v>
+        <v>55.65229981024601</v>
       </c>
       <c r="S5">
-        <v>0.006328543133411703</v>
+        <v>0.0004588472368785733</v>
       </c>
       <c r="T5">
-        <v>0.006328543133411703</v>
+        <v>0.0004588472368785734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6266754621935</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="H6">
-        <v>19.6266754621935</v>
+        <v>285.991859</v>
       </c>
       <c r="I6">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="J6">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.0394717200014</v>
+        <v>0.9181413333333334</v>
       </c>
       <c r="N6">
-        <v>93.0394717200014</v>
+        <v>2.754424</v>
       </c>
       <c r="O6">
-        <v>0.8183562921407328</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="P6">
-        <v>0.8183562921407328</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="Q6">
-        <v>1826.055516622398</v>
+        <v>87.52698224824624</v>
       </c>
       <c r="R6">
-        <v>1826.055516622398</v>
+        <v>787.7428402342161</v>
       </c>
       <c r="S6">
-        <v>0.1412746881586465</v>
+        <v>0.006494855142460855</v>
       </c>
       <c r="T6">
-        <v>0.1412746881586465</v>
+        <v>0.006494855142460855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6266754621935</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H7">
-        <v>19.6266754621935</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I7">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="J7">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6266754621935</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="N7">
-        <v>19.6266754621935</v>
+        <v>285.991859</v>
       </c>
       <c r="O7">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="P7">
-        <v>0.17263225017686</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="Q7">
-        <v>385.2063896982684</v>
+        <v>1871.110762139495</v>
       </c>
       <c r="R7">
-        <v>385.2063896982684</v>
+        <v>16839.99685925546</v>
       </c>
       <c r="S7">
-        <v>0.02980189380112599</v>
+        <v>0.1388439660941132</v>
       </c>
       <c r="T7">
-        <v>0.02980189380112599</v>
+        <v>0.1388439660941132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.6266754621935</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H8">
-        <v>19.6266754621935</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I8">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="J8">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.145321763785437</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N8">
-        <v>0.145321763785437</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O8">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="P8">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="Q8">
-        <v>2.852183095410317</v>
+        <v>385.2424723989616</v>
       </c>
       <c r="R8">
-        <v>2.852183095410317</v>
+        <v>3467.182251590655</v>
       </c>
       <c r="S8">
-        <v>0.0002206621177217901</v>
+        <v>0.0285865454135986</v>
       </c>
       <c r="T8">
-        <v>0.0002206621177217901</v>
+        <v>0.0285865454135986</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,185 +956,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.6266754621935</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H9">
-        <v>19.6266754621935</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I9">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="J9">
-        <v>0.17263225017686</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.879196860009934</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="N9">
-        <v>0.879196860009934</v>
+        <v>0.439468</v>
       </c>
       <c r="O9">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="P9">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="Q9">
-        <v>17.25571143879455</v>
+        <v>2.875233257656888</v>
       </c>
       <c r="R9">
-        <v>17.25571143879455</v>
+        <v>25.87709931891199</v>
       </c>
       <c r="S9">
-        <v>0.001335006099365702</v>
+        <v>0.0002133539056139627</v>
       </c>
       <c r="T9">
-        <v>0.001335006099365702</v>
+        <v>0.0002133539056139627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.145321763785437</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H10">
-        <v>0.145321763785437</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I10">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="J10">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>93.0394717200014</v>
+        <v>0.06486466666666667</v>
       </c>
       <c r="N10">
-        <v>93.0394717200014</v>
+        <v>0.194594</v>
       </c>
       <c r="O10">
-        <v>0.8183562921407328</v>
+        <v>0.0005587556757982266</v>
       </c>
       <c r="P10">
-        <v>0.8183562921407328</v>
+        <v>0.0005587556757982267</v>
       </c>
       <c r="Q10">
-        <v>13.52066013201589</v>
+        <v>1.273137385521778</v>
       </c>
       <c r="R10">
-        <v>13.52066013201589</v>
+        <v>11.458236469696</v>
       </c>
       <c r="S10">
-        <v>0.001046039962346105</v>
+        <v>9.447192948984558E-05</v>
       </c>
       <c r="T10">
-        <v>0.001046039962346105</v>
+        <v>9.44719294898456E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.145321763785437</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H11">
-        <v>0.145321763785437</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I11">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="J11">
-        <v>0.001278220711922158</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.6266754621935</v>
+        <v>0.9181413333333334</v>
       </c>
       <c r="N11">
-        <v>19.6266754621935</v>
+        <v>2.754424</v>
       </c>
       <c r="O11">
-        <v>0.17263225017686</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="P11">
-        <v>0.17263225017686</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="Q11">
-        <v>2.852183095410317</v>
+        <v>18.02090593737955</v>
       </c>
       <c r="R11">
-        <v>2.852183095410317</v>
+        <v>162.188153436416</v>
       </c>
       <c r="S11">
-        <v>0.0002206621177217901</v>
+        <v>0.00133722391190447</v>
       </c>
       <c r="T11">
-        <v>0.0002206621177217901</v>
+        <v>0.00133722391190447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.145321763785437</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="H12">
-        <v>0.145321763785437</v>
+        <v>0.439468</v>
       </c>
       <c r="I12">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="J12">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.145321763785437</v>
+        <v>95.33061966666668</v>
       </c>
       <c r="N12">
-        <v>0.145321763785437</v>
+        <v>285.991859</v>
       </c>
       <c r="O12">
-        <v>0.001278220711922158</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="P12">
-        <v>0.001278220711922158</v>
+        <v>0.8211947667879593</v>
       </c>
       <c r="Q12">
-        <v>0.02111841502971035</v>
+        <v>13.96491892122356</v>
       </c>
       <c r="R12">
-        <v>0.02111841502971035</v>
+        <v>125.684270291012</v>
       </c>
       <c r="S12">
-        <v>1.633848188386788E-06</v>
+        <v>0.001036253314575747</v>
       </c>
       <c r="T12">
-        <v>1.633848188386788E-06</v>
+        <v>0.001036253314575747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,247 +1204,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.145321763785437</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="H13">
-        <v>0.145321763785437</v>
+        <v>0.439468</v>
       </c>
       <c r="I13">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="J13">
-        <v>0.001278220711922158</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.879196860009934</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N13">
-        <v>0.879196860009934</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O13">
-        <v>0.007733236970484957</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="P13">
-        <v>0.007733236970484957</v>
+        <v>0.1690755612547201</v>
       </c>
       <c r="Q13">
-        <v>0.1277664384112616</v>
+        <v>2.875233257656888</v>
       </c>
       <c r="R13">
-        <v>0.1277664384112616</v>
+        <v>25.87709931891199</v>
       </c>
       <c r="S13">
-        <v>9.884783665876033E-06</v>
+        <v>0.0002133539056139627</v>
       </c>
       <c r="T13">
-        <v>9.884783665876033E-06</v>
+        <v>0.0002133539056139627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.879196860009934</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="H14">
-        <v>0.879196860009934</v>
+        <v>0.439468</v>
       </c>
       <c r="I14">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="J14">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>93.0394717200014</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="N14">
-        <v>93.0394717200014</v>
+        <v>0.439468</v>
       </c>
       <c r="O14">
-        <v>0.8183562921407328</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="P14">
-        <v>0.8183562921407328</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="Q14">
-        <v>81.80001139320829</v>
+        <v>0.02145912478044444</v>
       </c>
       <c r="R14">
-        <v>81.80001139320829</v>
+        <v>0.193132123024</v>
       </c>
       <c r="S14">
-        <v>0.006328543133411703</v>
+        <v>1.592353618883866E-06</v>
       </c>
       <c r="T14">
-        <v>0.006328543133411703</v>
+        <v>1.592353618883865E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.879196860009934</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="H15">
-        <v>0.879196860009934</v>
+        <v>0.439468</v>
       </c>
       <c r="I15">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="J15">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>19.6266754621935</v>
+        <v>0.06486466666666667</v>
       </c>
       <c r="N15">
-        <v>19.6266754621935</v>
+        <v>0.194594</v>
       </c>
       <c r="O15">
-        <v>0.17263225017686</v>
+        <v>0.0005587556757982266</v>
       </c>
       <c r="P15">
-        <v>0.17263225017686</v>
+        <v>0.0005587556757982267</v>
       </c>
       <c r="Q15">
-        <v>17.25571143879455</v>
+        <v>0.00950198177688889</v>
       </c>
       <c r="R15">
-        <v>17.25571143879455</v>
+        <v>0.085517835992</v>
       </c>
       <c r="S15">
-        <v>0.001335006099365702</v>
+        <v>7.050853762118901E-07</v>
       </c>
       <c r="T15">
-        <v>0.001335006099365702</v>
+        <v>7.050853762118902E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.879196860009934</v>
+        <v>0.1464893333333333</v>
       </c>
       <c r="H16">
-        <v>0.879196860009934</v>
+        <v>0.439468</v>
       </c>
       <c r="I16">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="J16">
-        <v>0.007733236970484957</v>
+        <v>0.001261884946769659</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.145321763785437</v>
+        <v>0.9181413333333334</v>
       </c>
       <c r="N16">
-        <v>0.145321763785437</v>
+        <v>2.754424</v>
       </c>
       <c r="O16">
-        <v>0.001278220711922158</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="P16">
-        <v>0.001278220711922158</v>
+        <v>0.007909031334752637</v>
       </c>
       <c r="Q16">
-        <v>0.1277664384112616</v>
+        <v>0.1344979118257778</v>
       </c>
       <c r="R16">
-        <v>0.1277664384112616</v>
+        <v>1.210481206432</v>
       </c>
       <c r="S16">
-        <v>9.884783665876033E-06</v>
+        <v>9.980287584853898E-06</v>
       </c>
       <c r="T16">
-        <v>9.884783665876033E-06</v>
+        <v>9.980287584853896E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.194594</v>
+      </c>
+      <c r="I17">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="J17">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>95.33061966666668</v>
+      </c>
+      <c r="N17">
+        <v>285.991859</v>
+      </c>
+      <c r="O17">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="P17">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="Q17">
+        <v>6.183588867805112</v>
+      </c>
+      <c r="R17">
+        <v>55.65229981024601</v>
+      </c>
+      <c r="S17">
+        <v>0.0004588472368785733</v>
+      </c>
+      <c r="T17">
+        <v>0.0004588472368785734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.194594</v>
+      </c>
+      <c r="I18">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="J18">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.62759466666666</v>
+      </c>
+      <c r="N18">
+        <v>58.88278399999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="P18">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="Q18">
+        <v>1.273137385521778</v>
+      </c>
+      <c r="R18">
+        <v>11.458236469696</v>
+      </c>
+      <c r="S18">
+        <v>9.447192948984558E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.44719294898456E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.194594</v>
+      </c>
+      <c r="I19">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="J19">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1464893333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.439468</v>
+      </c>
+      <c r="O19">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="P19">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="Q19">
+        <v>0.00950198177688889</v>
+      </c>
+      <c r="R19">
+        <v>0.085517835992</v>
+      </c>
+      <c r="S19">
+        <v>7.050853762118901E-07</v>
+      </c>
+      <c r="T19">
+        <v>7.050853762118902E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.194594</v>
+      </c>
+      <c r="I20">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="J20">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.194594</v>
+      </c>
+      <c r="O20">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="P20">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="Q20">
+        <v>0.004207424981777778</v>
+      </c>
+      <c r="R20">
+        <v>0.03786682483600001</v>
+      </c>
+      <c r="S20">
+        <v>3.122079052367329E-07</v>
+      </c>
+      <c r="T20">
+        <v>3.12207905236733E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.194594</v>
+      </c>
+      <c r="I21">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="J21">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="N21">
+        <v>2.754424</v>
+      </c>
+      <c r="O21">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="P21">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="Q21">
+        <v>0.05955493153955556</v>
+      </c>
+      <c r="R21">
+        <v>0.5359943838560001</v>
+      </c>
+      <c r="S21">
+        <v>4.41921614835906E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.419216148359061E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="H22">
+        <v>2.754424</v>
+      </c>
+      <c r="I22">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="J22">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>95.33061966666668</v>
+      </c>
+      <c r="N22">
+        <v>285.991859</v>
+      </c>
+      <c r="O22">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="P22">
+        <v>0.8211947667879593</v>
+      </c>
+      <c r="Q22">
+        <v>87.52698224824624</v>
+      </c>
+      <c r="R22">
+        <v>787.7428402342161</v>
+      </c>
+      <c r="S22">
+        <v>0.006494855142460855</v>
+      </c>
+      <c r="T22">
+        <v>0.006494855142460855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="H23">
+        <v>2.754424</v>
+      </c>
+      <c r="I23">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="J23">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.62759466666666</v>
+      </c>
+      <c r="N23">
+        <v>58.88278399999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="P23">
+        <v>0.1690755612547201</v>
+      </c>
+      <c r="Q23">
+        <v>18.02090593737955</v>
+      </c>
+      <c r="R23">
+        <v>162.188153436416</v>
+      </c>
+      <c r="S23">
+        <v>0.00133722391190447</v>
+      </c>
+      <c r="T23">
+        <v>0.00133722391190447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="H24">
+        <v>2.754424</v>
+      </c>
+      <c r="I24">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="J24">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1464893333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.439468</v>
+      </c>
+      <c r="O24">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="P24">
+        <v>0.001261884946769659</v>
+      </c>
+      <c r="Q24">
+        <v>0.1344979118257778</v>
+      </c>
+      <c r="R24">
+        <v>1.210481206432</v>
+      </c>
+      <c r="S24">
+        <v>9.980287584853898E-06</v>
+      </c>
+      <c r="T24">
+        <v>9.980287584853896E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="H17">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="I17">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="J17">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="N17">
-        <v>0.879196860009934</v>
-      </c>
-      <c r="O17">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="P17">
-        <v>0.007733236970484957</v>
-      </c>
-      <c r="Q17">
-        <v>0.7729871186513275</v>
-      </c>
-      <c r="R17">
-        <v>0.7729871186513275</v>
-      </c>
-      <c r="S17">
-        <v>5.980295404167536E-05</v>
-      </c>
-      <c r="T17">
-        <v>5.980295404167536E-05</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="H25">
+        <v>2.754424</v>
+      </c>
+      <c r="I25">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="J25">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.06486466666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.194594</v>
+      </c>
+      <c r="O25">
+        <v>0.0005587556757982266</v>
+      </c>
+      <c r="P25">
+        <v>0.0005587556757982267</v>
+      </c>
+      <c r="Q25">
+        <v>0.05955493153955556</v>
+      </c>
+      <c r="R25">
+        <v>0.5359943838560001</v>
+      </c>
+      <c r="S25">
+        <v>4.41921614835906E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.419216148359061E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="H26">
+        <v>2.754424</v>
+      </c>
+      <c r="I26">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="J26">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9181413333333334</v>
+      </c>
+      <c r="N26">
+        <v>2.754424</v>
+      </c>
+      <c r="O26">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="P26">
+        <v>0.007909031334752637</v>
+      </c>
+      <c r="Q26">
+        <v>0.8429835079751111</v>
+      </c>
+      <c r="R26">
+        <v>7.586851571776001</v>
+      </c>
+      <c r="S26">
+        <v>6.255277665409909E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.255277665409909E-05</v>
       </c>
     </row>
   </sheetData>
